--- a/PC Tech company_LP_calculating_max_net_profit.xlsx
+++ b/PC Tech company_LP_calculating_max_net_profit.xlsx
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
